--- a/src/test/testdata/Book1.xlsx
+++ b/src/test/testdata/Book1.xlsx
@@ -24,21 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>amira</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,34 +347,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="2">
+        <v>1021132355</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="B1" s="2">
         <v>1021132355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/testdata/Book1.xlsx
+++ b/src/test/testdata/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\eclipse-workspace\Automater\src\test\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automater\src\test\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +346,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,10 +357,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>1021132355</v>
+        <v>1127465097</v>
       </c>
       <c r="B1" s="2">
-        <v>1021132355</v>
+        <v>1127465097</v>
       </c>
     </row>
   </sheetData>
